--- a/xqls/doc/小桥流水功能清单.xlsx
+++ b/xqls/doc/小桥流水功能清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="水质采样管理系统" sheetId="1" r:id="rId1"/>
@@ -388,14 +388,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -404,75 +396,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -487,8 +411,22 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -503,17 +441,40 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -531,8 +492,47 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -553,7 +553,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,181 +727,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,32 +747,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -813,11 +795,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -842,11 +830,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -858,10 +852,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -870,156 +864,159 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1032,12 +1029,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1389,8 +1380,8 @@
   <sheetPr/>
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="$A10:$XFD10 $A11:$XFD11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1406,90 +1397,90 @@
     <col min="10" max="11" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:12">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="2" customFormat="1" spans="1:12">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="1" spans="1:5">
-      <c r="A2" s="7" t="s">
+    <row r="2" s="7" customFormat="1" spans="1:5">
+      <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" s="5" customFormat="1" spans="1:3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="5" t="s">
+    <row r="3" s="7" customFormat="1" spans="1:3">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" s="5" customFormat="1" spans="1:5">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="5" t="s">
+    <row r="4" s="7" customFormat="1" spans="1:5">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" s="5" customFormat="1" spans="1:5">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="5" t="s">
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" s="7" customFormat="1" spans="1:5">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
@@ -1497,36 +1488,36 @@
       </c>
     </row>
     <row r="7" ht="40.5" spans="1:5">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
       <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" ht="54" spans="1:6">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
       <c r="C9" t="s">
         <v>29</v>
       </c>
@@ -1537,24 +1528,24 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" s="6" customFormat="1" spans="1:3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11" t="s">
+    <row r="10" s="7" customFormat="1" spans="1:3">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" s="6" customFormat="1" spans="1:3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="6" t="s">
+    <row r="11" s="7" customFormat="1" spans="1:3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="9"/>
+      <c r="A12" s="10"/>
       <c r="B12" t="s">
         <v>35</v>
       </c>
@@ -1565,34 +1556,34 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" s="5" customFormat="1" spans="1:2">
-      <c r="A13" s="7" t="s">
+    <row r="13" s="7" customFormat="1" spans="1:2">
+      <c r="A13" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" s="6" customFormat="1" ht="27" spans="1:2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12" t="s">
+    <row r="14" s="7" customFormat="1" ht="27" spans="1:2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" s="6" customFormat="1" spans="1:4">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12" t="s">
+    <row r="15" s="7" customFormat="1" spans="1:4">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" ht="27" spans="1:6">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B16" t="s">
@@ -1604,15 +1595,15 @@
       <c r="D16" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="11" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="9"/>
+      <c r="A17" s="10"/>
       <c r="C17" t="s">
         <v>49</v>
       </c>
@@ -1621,25 +1612,25 @@
       </c>
     </row>
     <row r="18" ht="27" spans="1:6">
-      <c r="A18" s="9"/>
+      <c r="A18" s="10"/>
       <c r="B18" t="s">
         <v>51</v>
       </c>
       <c r="C18" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="9"/>
+      <c r="A19" s="10"/>
       <c r="C19" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="9"/>
+      <c r="A20" s="10"/>
       <c r="B20" t="s">
         <v>55</v>
       </c>
@@ -1651,29 +1642,29 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="9"/>
+      <c r="A21" s="10"/>
       <c r="C21" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="9"/>
+      <c r="A22" s="10"/>
       <c r="C22" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="9"/>
+      <c r="A23" s="10"/>
       <c r="C23" t="s">
         <v>60</v>
       </c>
       <c r="D23" t="s">
         <v>61</v>
       </c>
-      <c r="E23" s="10"/>
+      <c r="E23" s="11"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="9"/>
+      <c r="A24" s="10"/>
       <c r="C24" t="s">
         <v>62</v>
       </c>
@@ -1682,7 +1673,7 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="9"/>
+      <c r="A25" s="10"/>
       <c r="B25" t="s">
         <v>63</v>
       </c>
@@ -1691,7 +1682,7 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="10" t="s">
         <v>65</v>
       </c>
       <c r="B26" t="s">
@@ -1702,7 +1693,7 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="9"/>
+      <c r="A27" s="10"/>
       <c r="C27" t="s">
         <v>49</v>
       </c>
@@ -1711,38 +1702,38 @@
       </c>
     </row>
     <row r="28" ht="27" spans="1:6">
-      <c r="A28" s="9"/>
+      <c r="A28" s="10"/>
       <c r="B28" t="s">
         <v>51</v>
       </c>
       <c r="C28" t="s">
         <v>52</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="11" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="9"/>
+      <c r="A29" s="10"/>
       <c r="C29" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="30" ht="27" spans="1:5">
-      <c r="A30" s="9"/>
+      <c r="A30" s="10"/>
       <c r="B30" t="s">
         <v>69</v>
       </c>
       <c r="C30" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E30" s="10"/>
+      <c r="E30" s="11"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="9"/>
+      <c r="A31" s="10"/>
       <c r="C31" t="s">
         <v>72</v>
       </c>
@@ -1751,14 +1742,14 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="9"/>
+      <c r="A32" s="10"/>
       <c r="C32" t="s">
         <v>74</v>
       </c>
-      <c r="E32" s="10"/>
+      <c r="E32" s="11"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="9"/>
+      <c r="A33" s="10"/>
       <c r="B33" t="s">
         <v>55</v>
       </c>
@@ -1767,31 +1758,31 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="9"/>
+      <c r="A34" s="10"/>
       <c r="C34" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="9"/>
+      <c r="A35" s="10"/>
       <c r="C35" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="9"/>
+      <c r="A36" s="10"/>
       <c r="C36" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="9"/>
+      <c r="A37" s="10"/>
       <c r="C37" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="38" ht="27" spans="1:6">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="10" t="s">
         <v>80</v>
       </c>
       <c r="B38" t="s">
@@ -1800,12 +1791,12 @@
       <c r="C38" t="s">
         <v>82</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="F38" s="11" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="9"/>
+      <c r="A39" s="10"/>
       <c r="B39" t="s">
         <v>84</v>
       </c>
@@ -1815,43 +1806,42 @@
       <c r="D39" t="s">
         <v>86</v>
       </c>
-      <c r="E39"/>
       <c r="F39" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="40" ht="27" spans="1:4">
-      <c r="A40" s="9"/>
+      <c r="A40" s="10"/>
       <c r="C40" t="s">
         <v>88</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="41" s="2" customFormat="1" spans="1:5">
-      <c r="A41" s="13"/>
-      <c r="B41" s="2" t="s">
+    <row r="41" s="5" customFormat="1" spans="1:5">
+      <c r="A41" s="12"/>
+      <c r="B41" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="42" s="2" customFormat="1" spans="1:5">
-      <c r="A42" s="13"/>
-      <c r="C42" s="2" t="s">
+    <row r="42" s="5" customFormat="1" spans="1:5">
+      <c r="A42" s="12"/>
+      <c r="C42" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="9"/>
+      <c r="A43" s="10"/>
       <c r="C43" t="s">
         <v>94</v>
       </c>
@@ -1895,38 +1885,38 @@
     <col min="6" max="6" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:12">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="2" customFormat="1" spans="1:12">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1978,14 +1968,14 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="2:5">
-      <c r="B8" s="2" t="s">
+    <row r="8" s="5" customFormat="1" spans="2:5">
+      <c r="B8" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="6" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2034,17 +2024,17 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" spans="1:5">
-      <c r="A15" s="2" t="s">
+    <row r="15" s="5" customFormat="1" spans="1:5">
+      <c r="A15" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="6" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2106,14 +2096,63 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="C1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
+  <cols>
+    <col min="5" max="5" width="18.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:5">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="3:5">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="3:5">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
